--- a/data/trans_dic/P1416-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1416-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06084724910755168</v>
+        <v>0.06037813390525523</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06214661088843142</v>
+        <v>0.06109889572377302</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07428505913992184</v>
+        <v>0.07527542816542673</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09340603312654093</v>
+        <v>0.09173790777873386</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08819344636636932</v>
+        <v>0.08723435021069359</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06380047317452975</v>
+        <v>0.06534627119109566</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0687886032908068</v>
+        <v>0.06984815189190924</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06930093951969506</v>
+        <v>0.0689300921122793</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.08014301937860116</v>
+        <v>0.08091094458293971</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07016083921145506</v>
+        <v>0.06872994333698758</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.08094642306635459</v>
+        <v>0.08109051655759317</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.08977671070010311</v>
+        <v>0.09479699289064417</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1072863476325224</v>
+        <v>0.1095544962635431</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1162624598139064</v>
+        <v>0.1143486486910075</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1346677548004029</v>
+        <v>0.1365544573234747</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2047100546201982</v>
+        <v>0.1989386022526307</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1416798344558012</v>
+        <v>0.1436693899468022</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1160210941443641</v>
+        <v>0.1179969362662723</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1245531552558724</v>
+        <v>0.1254565877148814</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1558002080789866</v>
+        <v>0.1551957178159559</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1197333485472492</v>
+        <v>0.1155979031522649</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1093076234869852</v>
+        <v>0.105961147202742</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1202003752150084</v>
+        <v>0.1204795029152415</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1645310681763124</v>
+        <v>0.1669410237980943</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06263906130983038</v>
+        <v>0.06268269141051289</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04727333640501675</v>
+        <v>0.04781164606672016</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04792089862528615</v>
+        <v>0.04583954085393335</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07840375507952241</v>
+        <v>0.07721485217464173</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.08212082771285099</v>
+        <v>0.08477471656055388</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06319868427518933</v>
+        <v>0.06442359388654742</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07638899509404613</v>
+        <v>0.07515019904098644</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0998405924097099</v>
+        <v>0.1034986414481504</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07810860273154238</v>
+        <v>0.07924242621737701</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06069275288723478</v>
+        <v>0.06060144053707767</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06619999428116696</v>
+        <v>0.06499640417299303</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.09831338473377839</v>
+        <v>0.1008503467817669</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1024265916827433</v>
+        <v>0.1067528035019257</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08272062971066546</v>
+        <v>0.08475897690265853</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08791988498501045</v>
+        <v>0.08582088973706911</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1521557358471994</v>
+        <v>0.1481402176000978</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1355711163810789</v>
+        <v>0.1347876333787353</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1096281305217107</v>
+        <v>0.1096516011310054</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1248173320032446</v>
+        <v>0.1219719787849771</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1659249194583556</v>
+        <v>0.16667615227038</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1103508969778268</v>
+        <v>0.1097278480628739</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09004979878695334</v>
+        <v>0.09065907649952455</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.09620812937694477</v>
+        <v>0.09676232924475106</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1464453560403196</v>
+        <v>0.1475015899700562</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.09946537972250634</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1166045483735326</v>
+        <v>0.1166045483735327</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.08839183523537049</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04877421854100406</v>
+        <v>0.04976601588548914</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04268408069805704</v>
+        <v>0.0443797251113049</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03119750163287596</v>
+        <v>0.03177302576846949</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08740114114733932</v>
+        <v>0.09016496693098359</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08793339312753558</v>
+        <v>0.08646997034138086</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08462593977426475</v>
+        <v>0.0845894317037382</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07933137346758501</v>
+        <v>0.0773079814733838</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09799343764680343</v>
+        <v>0.0943295591909733</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07378453706478071</v>
+        <v>0.07261433005470458</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07205793263287243</v>
+        <v>0.07101584832197909</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05985499835373579</v>
+        <v>0.05997952683315263</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09667622130673738</v>
+        <v>0.09919487804746344</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09098887709052676</v>
+        <v>0.09060699523136856</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08248680253592808</v>
+        <v>0.08315974738279101</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0681055390483498</v>
+        <v>0.06720102528532605</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1425284620771778</v>
+        <v>0.1433406686980016</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1336051171184128</v>
+        <v>0.1350392828195995</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1329318642478446</v>
+        <v>0.1347253096102058</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.125432116960194</v>
+        <v>0.1252753347583264</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1400452273505586</v>
+        <v>0.138948834280113</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1043494026360853</v>
+        <v>0.1047171471404356</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1007077372997392</v>
+        <v>0.1017633955606855</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.08835511500952353</v>
+        <v>0.08991293350235501</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1320885183618407</v>
+        <v>0.1330629744099832</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03608534078642719</v>
+        <v>0.03488960748963513</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01358325513668013</v>
+        <v>0.01372134301537902</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02142733452191981</v>
+        <v>0.02046186933125181</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0821210559699847</v>
+        <v>0.0827968091254102</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07495374495409993</v>
+        <v>0.07340917595890074</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04434494658607351</v>
+        <v>0.04490427693447797</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05807950955169466</v>
+        <v>0.05765412326215741</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1311458375020022</v>
+        <v>0.1299815924659325</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06091633450901858</v>
+        <v>0.06044526838605047</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03073553017355848</v>
+        <v>0.03234564439291827</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04282140171160428</v>
+        <v>0.0428076718617416</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1129809775040311</v>
+        <v>0.1125132490872329</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07787478771105533</v>
+        <v>0.07827935316886545</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04022615542810955</v>
+        <v>0.04010265492950008</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05148029570524235</v>
+        <v>0.05115777271694635</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1315584745642323</v>
+        <v>0.1300472985904526</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1261937878395885</v>
+        <v>0.1255800610636005</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08921960299072511</v>
+        <v>0.08536347003057899</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1001271829138192</v>
+        <v>0.1026153728401951</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1731316748876575</v>
+        <v>0.1728163446169371</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09563475686406885</v>
+        <v>0.09480899679020645</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0561820437290815</v>
+        <v>0.05780071747956502</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07005419042353447</v>
+        <v>0.06915189411329835</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1454940264534099</v>
+        <v>0.1456221426572333</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.04002922377867774</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08182135446255454</v>
+        <v>0.08182135446255455</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.07209752565771288</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04323753530625657</v>
+        <v>0.04102146336417325</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01976770422467297</v>
+        <v>0.01986832062219735</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02441910969124667</v>
+        <v>0.024479857372726</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06383360562199211</v>
+        <v>0.06203473812718979</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04967467613956673</v>
+        <v>0.04836256020154982</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02753654953517223</v>
+        <v>0.02858497462393917</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05795597393670256</v>
+        <v>0.05876826024484635</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.103040769338852</v>
+        <v>0.09959059589110124</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05187796348982532</v>
+        <v>0.05074606968481678</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02760274571454712</v>
+        <v>0.02738361813858619</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04487473831480811</v>
+        <v>0.04488751758439163</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08791119367880977</v>
+        <v>0.08711360682768729</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09301685695530278</v>
+        <v>0.09306473123112391</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05558238699359475</v>
+        <v>0.05691879411824235</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06270752351215382</v>
+        <v>0.06219777608845523</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1063558804417349</v>
+        <v>0.1067683031533089</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1004114366699439</v>
+        <v>0.09843071151012819</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06720834603422117</v>
+        <v>0.0652079280548431</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1110088151794549</v>
+        <v>0.1077987162924197</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1445343225602846</v>
+        <v>0.1428975968673566</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08839954101064902</v>
+        <v>0.08808148266717082</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.05379857005085877</v>
+        <v>0.05526299154568839</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07919708836296345</v>
+        <v>0.07749410002551221</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1163366107864952</v>
+        <v>0.1171271246238239</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.01402952519506262</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.05809552487126954</v>
+        <v>0.05809552487126953</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.09876185796878791</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02699850953894588</v>
+        <v>0.02491233277420015</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02034107889306607</v>
+        <v>0.01937689835104655</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.005463466156866301</v>
+        <v>0.005415335710323243</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.04153530180491206</v>
+        <v>0.04047867548087482</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.0723536300424026</v>
+        <v>0.07209937769943821</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02374764330760009</v>
+        <v>0.02490140421132297</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01922864236679158</v>
+        <v>0.02124833256094153</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.08242422591680591</v>
+        <v>0.08439725878756404</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.05549085723342165</v>
+        <v>0.05562284997060956</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.02691398541604618</v>
+        <v>0.02726733536617309</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01434172879408837</v>
+        <v>0.01600806998382292</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.06724237865861546</v>
+        <v>0.06750691191492973</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0747492849729903</v>
+        <v>0.07668036045074163</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07340161078768229</v>
+        <v>0.07494219154797321</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03010593634336088</v>
+        <v>0.03069106543364703</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.08475598626505899</v>
+        <v>0.08167428525397762</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1349658037558573</v>
+        <v>0.1346887427558955</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06796113167034129</v>
+        <v>0.06755940999138962</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.05922739399202887</v>
+        <v>0.06193455553017774</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1253873020541557</v>
+        <v>0.1284377975174095</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.09736365821085455</v>
+        <v>0.0963597587732053</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.06224019814015603</v>
+        <v>0.06227574444156278</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.0385614462377919</v>
+        <v>0.03848435541012075</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.09658402147723337</v>
+        <v>0.09790669226278188</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.04311175866207521</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.07191627346583176</v>
+        <v>0.07191627346583175</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01978276014403428</v>
+        <v>0.02124867959903845</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01334768850399055</v>
+        <v>0.01667404229894396</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01753969003745716</v>
+        <v>0.01573691531362778</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03665546773876008</v>
+        <v>0.03486171222471253</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02547555379611301</v>
+        <v>0.02513355063223248</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.03407807249040676</v>
+        <v>0.03436709411404571</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03115639543988275</v>
+        <v>0.029919735609653</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.06575921544343515</v>
+        <v>0.06698945968039458</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02694339193906669</v>
+        <v>0.02582091621351535</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.03167533930699115</v>
+        <v>0.03094370264719184</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.02839022475969323</v>
+        <v>0.02765774381289698</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.05751440624372545</v>
+        <v>0.05774239096755991</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07683018136202593</v>
+        <v>0.07523637999066971</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07118887524164012</v>
+        <v>0.0709069989564349</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05933183137728341</v>
+        <v>0.05866077729670121</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.08270949444817416</v>
+        <v>0.07916799593018405</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07564012299718582</v>
+        <v>0.07485155219095428</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.07961507153822059</v>
+        <v>0.08615172370338375</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.07981704362516748</v>
+        <v>0.07769921072841456</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1054255486302263</v>
+        <v>0.1056413231459705</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06440420907835386</v>
+        <v>0.06442776008179686</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.06791051361064053</v>
+        <v>0.06632275633717864</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.06353169902272945</v>
+        <v>0.06291491828477916</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.08723827405748824</v>
+        <v>0.08677785131717604</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.04933756809564291</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.09723153214343004</v>
+        <v>0.09723153214343003</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.09588951205477066</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.05802178607102218</v>
+        <v>0.05908915541102524</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0435098820527838</v>
+        <v>0.04409917184942139</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.04174680470936292</v>
+        <v>0.04186507758721519</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.08702862900726986</v>
+        <v>0.08678672178550764</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.08626816254183399</v>
+        <v>0.08563969490159655</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.06511952507811121</v>
+        <v>0.06465355223801444</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.07061988369797076</v>
+        <v>0.07037897366956115</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1103929114332298</v>
+        <v>0.1106432249438359</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.07494144170394948</v>
+        <v>0.07531357902371294</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.05681103674328739</v>
+        <v>0.05607113253403907</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.05903944033177514</v>
+        <v>0.0588724850318107</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.101173605771423</v>
+        <v>0.1017011589876645</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.07571279204719857</v>
+        <v>0.07613413014860665</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.05954961786880995</v>
+        <v>0.05909200078441039</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.05757502808004282</v>
+        <v>0.05700254670070513</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.109166393051504</v>
+        <v>0.1094681089141488</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.105856501192828</v>
+        <v>0.1062559475636729</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.08275147388935107</v>
+        <v>0.08261728667356021</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.08872308701189194</v>
+        <v>0.08930994241980432</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1297848794768537</v>
+        <v>0.1294605370500311</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.08815567872117933</v>
+        <v>0.08882946057112293</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.06880991841940987</v>
+        <v>0.06862126736390818</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.0715917241276039</v>
+        <v>0.0707184017167687</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1161517756946403</v>
+        <v>0.1160045453312432</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>30062</v>
+        <v>29831</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>28224</v>
+        <v>27748</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>31160</v>
+        <v>31575</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>38090</v>
+        <v>37410</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>41229</v>
+        <v>40781</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>27449</v>
+        <v>28114</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>27223</v>
+        <v>27643</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>24937</v>
+        <v>24804</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>77062</v>
+        <v>77800</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>62049</v>
+        <v>60783</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>65989</v>
+        <v>66106</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>68916</v>
+        <v>72769</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>53006</v>
+        <v>54127</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>52800</v>
+        <v>51931</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>56488</v>
+        <v>57280</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>83479</v>
+        <v>81126</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>66234</v>
+        <v>67164</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>49916</v>
+        <v>50766</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>49293</v>
+        <v>49650</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>56063</v>
+        <v>55846</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>115130</v>
+        <v>111154</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>96669</v>
+        <v>93709</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>97990</v>
+        <v>98217</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>126300</v>
+        <v>128150</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>46070</v>
+        <v>46102</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>32481</v>
+        <v>32851</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>28297</v>
+        <v>27068</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>37390</v>
+        <v>36823</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>51366</v>
+        <v>53026</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>38567</v>
+        <v>39315</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>43049</v>
+        <v>42350</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>49407</v>
+        <v>51217</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>106304</v>
+        <v>107848</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>78739</v>
+        <v>78621</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>76397</v>
+        <v>75008</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>95536</v>
+        <v>98001</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>75334</v>
+        <v>78516</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>56836</v>
+        <v>58237</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>51916</v>
+        <v>50677</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>72562</v>
+        <v>70647</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>84799</v>
+        <v>84309</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>66901</v>
+        <v>66915</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>70340</v>
+        <v>68737</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>82109</v>
+        <v>82481</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>150186</v>
+        <v>149338</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>116825</v>
+        <v>117616</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>111028</v>
+        <v>111668</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>142308</v>
+        <v>143335</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>31151</v>
+        <v>31784</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>29061</v>
+        <v>30216</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>20874</v>
+        <v>21259</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>54262</v>
+        <v>55978</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>60652</v>
+        <v>59642</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>60048</v>
+        <v>60022</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>52469</v>
+        <v>51130</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>60822</v>
+        <v>58548</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>98016</v>
+        <v>96462</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>100190</v>
+        <v>98742</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>79636</v>
+        <v>79802</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>120025</v>
+        <v>123152</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>58112</v>
+        <v>57868</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>56160</v>
+        <v>56619</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>45569</v>
+        <v>44964</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>88487</v>
+        <v>88991</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>92153</v>
+        <v>93143</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>94325</v>
+        <v>95598</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>82959</v>
+        <v>82855</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>86923</v>
+        <v>86242</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>138619</v>
+        <v>139108</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>140026</v>
+        <v>141493</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>117555</v>
+        <v>119628</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>163990</v>
+        <v>165200</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18734</v>
+        <v>18113</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8348</v>
+        <v>8433</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>13843</v>
+        <v>13219</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>57286</v>
+        <v>57757</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>38649</v>
+        <v>37853</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>27325</v>
+        <v>27670</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>37698</v>
+        <v>37422</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>96298</v>
+        <v>95443</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>63036</v>
+        <v>62548</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>37830</v>
+        <v>39812</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>55459</v>
+        <v>55441</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>161773</v>
+        <v>161104</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>40428</v>
+        <v>40638</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>24724</v>
+        <v>24648</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>33259</v>
+        <v>33050</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>91773</v>
+        <v>90718</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>65071</v>
+        <v>64754</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>54977</v>
+        <v>52601</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>64990</v>
+        <v>66605</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>127128</v>
+        <v>126896</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>98962</v>
+        <v>98107</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>69150</v>
+        <v>71142</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>90729</v>
+        <v>89560</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>208328</v>
+        <v>208511</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>16720</v>
+        <v>15863</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>8489</v>
+        <v>8532</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>11670</v>
+        <v>11699</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>38774</v>
+        <v>37681</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>20068</v>
+        <v>19538</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>12331</v>
+        <v>12800</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>28795</v>
+        <v>29199</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>62338</v>
+        <v>60251</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>41020</v>
+        <v>40125</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>24214</v>
+        <v>24022</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>43742</v>
+        <v>43755</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>106584</v>
+        <v>105617</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>35971</v>
+        <v>35989</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>23869</v>
+        <v>24443</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>29969</v>
+        <v>29725</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>64603</v>
+        <v>64854</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>40565</v>
+        <v>39765</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>30096</v>
+        <v>29200</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>55155</v>
+        <v>53560</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>87441</v>
+        <v>86451</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>69897</v>
+        <v>69646</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>47194</v>
+        <v>48478</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>77199</v>
+        <v>75539</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>141047</v>
+        <v>142006</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>7899</v>
+        <v>7289</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>6301</v>
+        <v>6003</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1827</v>
+        <v>1811</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>16872</v>
+        <v>16443</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>24813</v>
+        <v>24725</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>8407</v>
+        <v>8815</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>7264</v>
+        <v>8027</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>36147</v>
+        <v>37013</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>35265</v>
+        <v>35349</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>17865</v>
+        <v>18100</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>10213</v>
+        <v>11399</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>56804</v>
+        <v>57027</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>21870</v>
+        <v>22435</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>22739</v>
+        <v>23216</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>10065</v>
+        <v>10261</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>34429</v>
+        <v>33177</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>46284</v>
+        <v>46189</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>24058</v>
+        <v>23916</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>22374</v>
+        <v>23397</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>54989</v>
+        <v>56327</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>61876</v>
+        <v>61238</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>41314</v>
+        <v>41338</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>27459</v>
+        <v>27404</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>81591</v>
+        <v>82708</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>4152</v>
+        <v>4460</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3335</v>
+        <v>4166</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4508</v>
+        <v>4044</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>11370</v>
+        <v>10814</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>8506</v>
+        <v>8392</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>13256</v>
+        <v>13368</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>12468</v>
+        <v>11973</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>30534</v>
+        <v>31105</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>14652</v>
+        <v>14041</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>20235</v>
+        <v>19768</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>18657</v>
+        <v>18176</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>44546</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>16125</v>
+        <v>15791</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>17787</v>
+        <v>17716</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>15248</v>
+        <v>15076</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>25656</v>
+        <v>24558</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>25257</v>
+        <v>24994</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>30969</v>
+        <v>33511</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>31940</v>
+        <v>31093</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>48952</v>
+        <v>49052</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>35022</v>
+        <v>35035</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>43383</v>
+        <v>42369</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>41751</v>
+        <v>41346</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>67568</v>
+        <v>67212</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>190111</v>
+        <v>193608</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>149054</v>
+        <v>151073</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>141703</v>
+        <v>142105</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>306944</v>
+        <v>306091</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>291517</v>
+        <v>289393</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>231632</v>
+        <v>229975</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>250315</v>
+        <v>249461</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>410388</v>
+        <v>411319</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>498791</v>
+        <v>501268</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>396700</v>
+        <v>391533</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>409668</v>
+        <v>408510</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>732948</v>
+        <v>736770</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>248076</v>
+        <v>249457</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>204003</v>
+        <v>202435</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>195430</v>
+        <v>193487</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>385023</v>
+        <v>386087</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>357710</v>
+        <v>359060</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>294350</v>
+        <v>293872</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>314483</v>
+        <v>316563</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>482479</v>
+        <v>481273</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>586741</v>
+        <v>591226</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>480485</v>
+        <v>479168</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>496767</v>
+        <v>490707</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>841457</v>
+        <v>840390</v>
       </c>
     </row>
     <row r="36">
